--- a/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2750</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>29920</v>
+        <v>28.672</v>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
         <v>70</v>
@@ -1645,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>110000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="D3" t="n">
-        <v>4103</v>
+        <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>26880</v>
+        <v>22.68</v>
       </c>
       <c r="F3" t="n">
-        <v>16412</v>
+        <v>6.5648</v>
       </c>
       <c r="G3" t="n">
         <v>126</v>
@@ -1674,7 +1674,7 @@
         <v>132.3</v>
       </c>
       <c r="I3" t="n">
-        <v>164120</v>
+        <v>65.648</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1685,16 +1685,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>4162</v>
+        <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>30200</v>
+        <v>11.76</v>
       </c>
       <c r="F4" t="n">
-        <v>16648</v>
+        <v>6.6592</v>
       </c>
       <c r="G4" t="n">
         <v>57</v>
@@ -1703,7 +1703,7 @@
         <v>51.3</v>
       </c>
       <c r="I4" t="n">
-        <v>166480</v>
+        <v>66.592</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1714,16 +1714,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>4247.4</v>
+        <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>51383.27999999999</v>
+        <v>14.703936</v>
       </c>
       <c r="F5" t="n">
-        <v>16989.6</v>
+        <v>6.79584</v>
       </c>
       <c r="G5" t="n">
         <v>46</v>
@@ -1732,7 +1732,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>169896</v>
+        <v>67.9584</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2400</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>53760</v>
+        <v>45.36000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9600</v>
+        <v>3.84</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>96000</v>
+        <v>38.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2350</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>87200</v>
+        <v>40.64</v>
       </c>
       <c r="F7" t="n">
-        <v>9400</v>
+        <v>3.76</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>94000</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3953</v>
+        <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>8960</v>
+        <v>7.56</v>
       </c>
       <c r="F8" t="n">
-        <v>15812</v>
+        <v>6.3248</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>158120</v>
+        <v>63.248</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3912</v>
+        <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>16440</v>
+        <v>5.4528</v>
       </c>
       <c r="F9" t="n">
-        <v>15648</v>
+        <v>6.2592</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>156480</v>
+        <v>62.592</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1859,16 +1859,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="D10" t="n">
-        <v>1100</v>
+        <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>197120</v>
+        <v>166.32</v>
       </c>
       <c r="F10" t="n">
-        <v>4400</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44000</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1888,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>779</v>
+        <v>1065</v>
       </c>
       <c r="D11" t="n">
-        <v>600</v>
+        <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>316800</v>
+        <v>188.256</v>
       </c>
       <c r="F11" t="n">
-        <v>2400</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24000</v>
+        <v>9.600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1917,16 +1917,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>779</v>
+        <v>1065</v>
       </c>
       <c r="D12" t="n">
-        <v>400</v>
+        <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>211200</v>
+        <v>125.504</v>
       </c>
       <c r="F12" t="n">
-        <v>1600</v>
+        <v>0.64</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1946,16 +1946,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>366</v>
+        <v>620</v>
       </c>
       <c r="D13" t="n">
-        <v>1100</v>
+        <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>383680</v>
+        <v>178.816</v>
       </c>
       <c r="F13" t="n">
-        <v>4400</v>
+        <v>1.76</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44000</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1500</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>679800</v>
+        <v>363.12</v>
       </c>
       <c r="F14" t="n">
-        <v>6000</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>60000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2004,16 +2004,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="D15" t="n">
-        <v>2400</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9600</v>
+        <v>3.84</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>96000</v>
+        <v>38.40000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="D16" t="n">
-        <v>1503</v>
+        <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>537.5999999999999</v>
+        <v>0.4536000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>6012</v>
+        <v>2.4048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60120</v>
+        <v>24.048</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2062,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="D17" t="n">
-        <v>1502</v>
+        <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>548</v>
+        <v>0.18176</v>
       </c>
       <c r="F17" t="n">
-        <v>6008</v>
+        <v>2.4032</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>60080</v>
+        <v>24.032</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2091,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>366</v>
+        <v>620</v>
       </c>
       <c r="D18" t="n">
-        <v>2350</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>9400</v>
+        <v>3.76</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>94000</v>
+        <v>37.6</v>
       </c>
     </row>
   </sheetData>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C4" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>6.875</v>
       </c>
       <c r="E2" t="n">
-        <v>10.875</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.25</v>
+        <v>18.9375</v>
       </c>
       <c r="C3" t="n">
-        <v>10.875</v>
+        <v>33.9375</v>
       </c>
       <c r="D3" t="n">
-        <v>10.6875</v>
+        <v>7.125</v>
       </c>
       <c r="E3" t="n">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2653,16 +2653,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>27.125</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>41.5625</v>
       </c>
       <c r="D4" t="n">
-        <v>26.90625</v>
+        <v>27.5625</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5</v>
+        <v>22.75</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2709,16 +2709,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.328125</v>
+        <v>24.140625</v>
       </c>
       <c r="C5" t="n">
-        <v>53.90625</v>
+        <v>54.140625</v>
       </c>
       <c r="D5" t="n">
-        <v>13.59375</v>
+        <v>17.578125</v>
       </c>
       <c r="E5" t="n">
-        <v>21.328125</v>
+        <v>12.890625</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3125</v>
+        <v>14.53125</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>56.9140625</v>
       </c>
       <c r="D6" t="n">
-        <v>4.84375</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20.5859375</v>
+        <v>22.0390625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1377.92</v>
+        <v>1419.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4606.8</v>
+        <v>6231.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1962.4</v>
+        <v>2779.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19687.6</v>
+        <v>27361.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65180.8</v>
+        <v>98956.79999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -1633,7 +1633,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>28.672</v>
+        <v>22.208</v>
       </c>
       <c r="F2" t="n">
         <v>4.4</v>
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>301</v>
+        <v>456</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>22.68</v>
+        <v>20.496</v>
       </c>
       <c r="F3" t="n">
         <v>6.5648</v>
@@ -1685,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>11.76</v>
+        <v>2.44</v>
       </c>
       <c r="F4" t="n">
         <v>6.6592</v>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>14.703936</v>
+        <v>11.215776</v>
       </c>
       <c r="F5" t="n">
         <v>6.79584</v>
@@ -1749,7 +1749,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>45.36000000000001</v>
+        <v>40.992</v>
       </c>
       <c r="F6" t="n">
         <v>3.84</v>
@@ -1778,7 +1778,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>40.64</v>
+        <v>24.68</v>
       </c>
       <c r="F7" t="n">
         <v>3.76</v>
@@ -1807,7 +1807,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>7.56</v>
+        <v>6.832000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>6.3248</v>
@@ -1836,7 +1836,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>5.4528</v>
+        <v>2.592</v>
       </c>
       <c r="F9" t="n">
         <v>6.2592</v>
@@ -1859,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>166.32</v>
+        <v>150.304</v>
       </c>
       <c r="F10" t="n">
         <v>1.76</v>
@@ -1888,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1065</v>
+        <v>624</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>188.256</v>
+        <v>141.216</v>
       </c>
       <c r="F11" t="n">
         <v>0.9600000000000001</v>
@@ -1917,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1065</v>
+        <v>624</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>125.504</v>
+        <v>94.14400000000002</v>
       </c>
       <c r="F12" t="n">
         <v>0.64</v>
@@ -1946,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>620</v>
+        <v>308</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>178.816</v>
+        <v>108.592</v>
       </c>
       <c r="F13" t="n">
         <v>1.76</v>
@@ -1981,7 +1981,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>363.12</v>
+        <v>269.76</v>
       </c>
       <c r="F14" t="n">
         <v>2.4</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -2033,13 +2033,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4536000000000001</v>
+        <v>0.4099200000000001</v>
       </c>
       <c r="F16" t="n">
         <v>2.4048</v>
@@ -2062,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>380</v>
+        <v>165</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.18176</v>
+        <v>0.0864</v>
       </c>
       <c r="F17" t="n">
         <v>2.4032</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>620</v>
+        <v>308</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5</v>
+        <v>47.5</v>
       </c>
       <c r="D2" t="n">
-        <v>6.875</v>
+        <v>2.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9375</v>
+        <v>11.625</v>
       </c>
       <c r="C3" t="n">
-        <v>33.9375</v>
+        <v>11.625</v>
       </c>
       <c r="D3" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2653,16 +2653,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.125</v>
+        <v>15.09375</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5625</v>
+        <v>50.75</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5625</v>
+        <v>8.96875</v>
       </c>
       <c r="E4" t="n">
-        <v>22.75</v>
+        <v>3.9375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2709,16 +2709,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.140625</v>
+        <v>15.703125</v>
       </c>
       <c r="C5" t="n">
-        <v>54.140625</v>
+        <v>15.703125</v>
       </c>
       <c r="D5" t="n">
-        <v>17.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="E5" t="n">
-        <v>12.890625</v>
+        <v>22.265625</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.53125</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>56.9140625</v>
+        <v>27.3671875</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22.0390625</v>
+        <v>15.2578125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1419.6</v>
+        <v>865.96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6231.2</v>
+        <v>4634.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2779.2</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27361.2</v>
+        <v>20504.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98956.79999999999</v>
+        <v>75333.20000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -1633,7 +1633,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>22.208</v>
+        <v>20.608</v>
       </c>
       <c r="F2" t="n">
         <v>4.4</v>
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>456</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>20.496</v>
+        <v>17.616</v>
       </c>
       <c r="F3" t="n">
         <v>6.5648</v>
@@ -1685,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>2.44</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>6.6592</v>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>11.215776</v>
+        <v>9.874175999999999</v>
       </c>
       <c r="F5" t="n">
         <v>6.79584</v>
@@ -1749,7 +1749,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>40.992</v>
+        <v>35.23200000000001</v>
       </c>
       <c r="F6" t="n">
         <v>3.84</v>
@@ -1778,7 +1778,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>24.68</v>
+        <v>25.36</v>
       </c>
       <c r="F7" t="n">
         <v>3.76</v>
@@ -1807,7 +1807,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>6.832000000000001</v>
+        <v>5.872000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>6.3248</v>
@@ -1836,7 +1836,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>2.592</v>
+        <v>2.9952</v>
       </c>
       <c r="F9" t="n">
         <v>6.2592</v>
@@ -1859,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>315</v>
+        <v>654</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>150.304</v>
+        <v>129.184</v>
       </c>
       <c r="F10" t="n">
         <v>1.76</v>
@@ -1888,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>624</v>
+        <v>933</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>141.216</v>
+        <v>131.328</v>
       </c>
       <c r="F11" t="n">
         <v>0.9600000000000001</v>
@@ -1917,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>624</v>
+        <v>933</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>94.14400000000002</v>
+        <v>87.55200000000001</v>
       </c>
       <c r="F12" t="n">
         <v>0.64</v>
@@ -1946,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>108.592</v>
+        <v>111.584</v>
       </c>
       <c r="F13" t="n">
         <v>1.76</v>
@@ -1981,7 +1981,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>269.76</v>
+        <v>251.04</v>
       </c>
       <c r="F14" t="n">
         <v>2.4</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>315</v>
+        <v>654</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -2033,13 +2033,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>315</v>
+        <v>654</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4099200000000001</v>
+        <v>0.3523200000000001</v>
       </c>
       <c r="F16" t="n">
         <v>2.4048</v>
@@ -2062,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0864</v>
+        <v>0.09984</v>
       </c>
       <c r="F17" t="n">
         <v>2.4032</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2301,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.625</v>
+        <v>6.375</v>
       </c>
       <c r="C2" t="n">
-        <v>47.5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.625</v>
+        <v>10.125</v>
       </c>
       <c r="C3" t="n">
-        <v>11.625</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.3125</v>
       </c>
       <c r="E3" t="n">
-        <v>3.75</v>
+        <v>9.5625</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2653,16 +2653,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.09375</v>
+        <v>20.125</v>
       </c>
       <c r="C4" t="n">
-        <v>50.75</v>
+        <v>74.59375</v>
       </c>
       <c r="D4" t="n">
-        <v>8.96875</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.9375</v>
+        <v>9.40625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2709,16 +2709,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.703125</v>
+        <v>9.140625</v>
       </c>
       <c r="C5" t="n">
-        <v>15.703125</v>
+        <v>53.203125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.46875</v>
+        <v>15.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>22.265625</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>20.828125</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3671875</v>
+        <v>36.328125</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.8359375</v>
       </c>
       <c r="E6" t="n">
-        <v>15.2578125</v>
+        <v>18.890625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>865.96</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4634.8</v>
+        <v>10782</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2076</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20504.8</v>
+        <v>47574.00000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75333.20000000001</v>
+        <v>174002</v>
       </c>
     </row>
   </sheetData>
